--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,30 +58,30 @@
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -94,157 +94,166 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
+    <t>store</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>food</t>
@@ -611,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +713,13 @@
         <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -754,13 +763,13 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -780,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -830,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.702054794520548</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C6">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D6">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9545454545454546</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -880,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.9491525423728814</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5384615384615384</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3959731543624161</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3728813559322034</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8292682926829268</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3725490196078431</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3643410852713178</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C13">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D13">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3466666666666667</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3376623376623377</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K15">
-        <v>0.8083333333333333</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3068783068783069</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>39</v>
@@ -1404,13 +1413,13 @@
         <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7872340425531915</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1463,13 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7816901408450704</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.09919571045576407</v>
+        <v>0.1206434316353887</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1539,13 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1548,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1556,13 +1565,13 @@
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7301587301587301</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,13 +1591,13 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>0.7254901960784313</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,13 +1617,13 @@
         <v>46</v>
       </c>
       <c r="K23">
-        <v>0.7169811320754716</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L23">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1626,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1634,13 +1643,13 @@
         <v>47</v>
       </c>
       <c r="K24">
-        <v>0.7021276595744681</v>
+        <v>0.68125</v>
       </c>
       <c r="L24">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1652,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1660,13 +1669,13 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>0.675</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1678,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1686,13 +1695,13 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6744186046511628</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1704,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1712,13 +1721,13 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1730,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1738,13 +1747,13 @@
         <v>51</v>
       </c>
       <c r="K28">
-        <v>0.6318537859007833</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L28">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1756,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1764,13 +1773,13 @@
         <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6222222222222222</v>
+        <v>0.6135770234986945</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1782,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1790,13 +1799,13 @@
         <v>53</v>
       </c>
       <c r="K30">
-        <v>0.62</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1808,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1816,13 +1825,13 @@
         <v>54</v>
       </c>
       <c r="K31">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1834,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1842,13 +1851,13 @@
         <v>55</v>
       </c>
       <c r="K32">
-        <v>0.5823529411764706</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L32">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1860,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1868,13 +1877,13 @@
         <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5617977528089888</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1886,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1894,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="K34">
-        <v>0.5428571428571428</v>
+        <v>0.58</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1912,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1920,13 +1929,13 @@
         <v>58</v>
       </c>
       <c r="K35">
-        <v>0.5389830508474577</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L35">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="M35">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1938,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1946,13 +1955,13 @@
         <v>59</v>
       </c>
       <c r="K36">
-        <v>0.525</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1964,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1972,13 +1981,13 @@
         <v>60</v>
       </c>
       <c r="K37">
-        <v>0.4923076923076923</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1990,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1998,13 +2007,13 @@
         <v>61</v>
       </c>
       <c r="K38">
-        <v>0.4895397489539749</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L38">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2016,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2024,13 +2033,13 @@
         <v>62</v>
       </c>
       <c r="K39">
-        <v>0.4615384615384616</v>
+        <v>0.4686192468619247</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2042,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2050,13 +2059,13 @@
         <v>63</v>
       </c>
       <c r="K40">
-        <v>0.4383561643835616</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2068,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2076,13 +2085,13 @@
         <v>64</v>
       </c>
       <c r="K41">
-        <v>0.421875</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2094,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2102,7 +2111,7 @@
         <v>65</v>
       </c>
       <c r="K42">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="L42">
         <v>28</v>
@@ -2120,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2128,13 +2137,13 @@
         <v>66</v>
       </c>
       <c r="K43">
-        <v>0.1496062992125984</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2146,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2154,13 +2163,13 @@
         <v>67</v>
       </c>
       <c r="K44">
-        <v>0.1196172248803828</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2172,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>368</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2180,13 +2189,13 @@
         <v>68</v>
       </c>
       <c r="K45">
-        <v>0.1129807692307692</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2198,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>369</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2206,13 +2215,13 @@
         <v>69</v>
       </c>
       <c r="K46">
-        <v>0.1069767441860465</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2224,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2232,13 +2241,13 @@
         <v>70</v>
       </c>
       <c r="K47">
-        <v>0.1023255813953488</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2250,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>193</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2258,13 +2267,13 @@
         <v>71</v>
       </c>
       <c r="K48">
-        <v>0.08256880733944955</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2276,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>300</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2284,13 +2293,13 @@
         <v>72</v>
       </c>
       <c r="K49">
-        <v>0.07046979865771812</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L49">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2302,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>831</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2310,13 +2319,13 @@
         <v>73</v>
       </c>
       <c r="K50">
-        <v>0.06326304106548279</v>
+        <v>0.07494407158836688</v>
       </c>
       <c r="L50">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M50">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2328,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2336,25 +2345,25 @@
         <v>74</v>
       </c>
       <c r="K51">
-        <v>0.04629629629629629</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>618</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2362,25 +2371,25 @@
         <v>75</v>
       </c>
       <c r="K52">
-        <v>0.04157043879907621</v>
+        <v>0.04994450610432852</v>
       </c>
       <c r="L52">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>830</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2388,25 +2397,25 @@
         <v>76</v>
       </c>
       <c r="K53">
-        <v>0.0364656381486676</v>
+        <v>0.04622496147919877</v>
       </c>
       <c r="L53">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2061</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2414,25 +2423,25 @@
         <v>77</v>
       </c>
       <c r="K54">
-        <v>0.02590673575129534</v>
+        <v>0.04536950420954163</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="N54">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>940</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2440,25 +2449,25 @@
         <v>78</v>
       </c>
       <c r="K55">
-        <v>0.01903839948370442</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L55">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M55">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="N55">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3040</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2466,25 +2475,103 @@
         <v>79</v>
       </c>
       <c r="K56">
-        <v>0.007518796992481203</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N56">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>3168</v>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57">
+        <v>0.02685950413223141</v>
+      </c>
+      <c r="L57">
+        <v>26</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58">
+        <v>0.02032258064516129</v>
+      </c>
+      <c r="L58">
+        <v>63</v>
+      </c>
+      <c r="M58">
+        <v>70</v>
+      </c>
+      <c r="N58">
+        <v>0.9</v>
+      </c>
+      <c r="O58">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59">
+        <v>0.0112781954887218</v>
+      </c>
+      <c r="L59">
+        <v>36</v>
+      </c>
+      <c r="M59">
+        <v>45</v>
+      </c>
+      <c r="N59">
+        <v>0.8</v>
+      </c>
+      <c r="O59">
+        <v>0.2</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3156</v>
       </c>
     </row>
   </sheetData>
